--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander.Oakley\my-stuff-noonedrive\Code\proj\create-BoFCT-repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B89480D4-CD0E-4F91-BD32-DE45E42CB04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A7A0A3-4C5D-4E48-8061-D654A028B050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="765" windowWidth="31485" windowHeight="20835" xr2:uid="{EE85DC9D-0BEB-465F-B0B9-4E6031E4A124}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="30015" windowHeight="18690" xr2:uid="{EE85DC9D-0BEB-465F-B0B9-4E6031E4A124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1474,8 +1474,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1790,15 +1791,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A7A06B-A0D6-42C9-AD6F-9C5E59C6BAA0}">
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="39" max="39" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1896,7 +1901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1939,7 +1944,7 @@
       <c r="R2" t="s">
         <v>45</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>45314</v>
       </c>
       <c r="T2" t="s">
@@ -1972,8 +1977,12 @@
       <c r="AF2" t="s">
         <v>55</v>
       </c>
+      <c r="AM2" t="e">
+        <f>DATEVALUE(S2)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2013,7 +2022,7 @@
       <c r="R3" t="s">
         <v>45</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>45314</v>
       </c>
       <c r="T3" t="s">
@@ -2053,7 +2062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -2096,7 +2105,7 @@
       <c r="R4" t="s">
         <v>45</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>45313</v>
       </c>
       <c r="T4" t="s">
@@ -2133,7 +2142,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2170,7 +2179,7 @@
       <c r="R5" t="s">
         <v>45</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>45301</v>
       </c>
       <c r="V5" t="s">
@@ -2204,7 +2213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2241,6 +2250,7 @@
       <c r="Q6" t="s">
         <v>44</v>
       </c>
+      <c r="S6" s="1"/>
       <c r="Y6" t="s">
         <v>110</v>
       </c>
@@ -2260,7 +2270,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -2303,7 +2313,7 @@
       <c r="R7" t="s">
         <v>45</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>45315</v>
       </c>
       <c r="T7" t="s">
@@ -2337,7 +2347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -2371,6 +2381,7 @@
       <c r="N8" t="s">
         <v>135</v>
       </c>
+      <c r="S8" s="1"/>
       <c r="V8" t="s">
         <v>49</v>
       </c>
@@ -2399,7 +2410,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2436,6 +2447,7 @@
       <c r="Q9" t="s">
         <v>44</v>
       </c>
+      <c r="S9" s="1"/>
       <c r="Y9" t="s">
         <v>136</v>
       </c>
@@ -2452,7 +2464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -2492,7 +2504,7 @@
       <c r="R10" t="s">
         <v>45</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="1" t="s">
         <v>155</v>
       </c>
       <c r="T10" t="s">
@@ -2526,7 +2538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>160</v>
       </c>
@@ -2566,6 +2578,7 @@
       <c r="Q11" t="s">
         <v>167</v>
       </c>
+      <c r="S11" s="1"/>
       <c r="U11" t="s">
         <v>47</v>
       </c>
@@ -2594,7 +2607,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -2628,6 +2641,7 @@
       <c r="Q12" t="s">
         <v>154</v>
       </c>
+      <c r="S12" s="1"/>
       <c r="V12" t="s">
         <v>49</v>
       </c>
@@ -2656,7 +2670,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -2702,7 +2716,7 @@
       <c r="R13" t="s">
         <v>45</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>45302</v>
       </c>
       <c r="V13" t="s">
@@ -2727,7 +2741,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>195</v>
       </c>
@@ -2779,7 +2793,7 @@
       <c r="R14" t="s">
         <v>45</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>45297</v>
       </c>
       <c r="T14" t="s">
@@ -2816,7 +2830,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -2856,6 +2870,7 @@
       <c r="Q15" t="s">
         <v>213</v>
       </c>
+      <c r="S15" s="1"/>
       <c r="Y15" t="s">
         <v>65</v>
       </c>
@@ -2872,7 +2887,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -2915,6 +2930,7 @@
       <c r="R16" t="s">
         <v>45</v>
       </c>
+      <c r="S16" s="1"/>
       <c r="Y16" t="s">
         <v>65</v>
       </c>
@@ -2980,7 +2996,7 @@
       <c r="R17" t="s">
         <v>45</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="1">
         <v>45307</v>
       </c>
       <c r="Y17" t="s">
@@ -3039,6 +3055,7 @@
       <c r="Q18" t="s">
         <v>242</v>
       </c>
+      <c r="S18" s="1"/>
       <c r="U18" t="s">
         <v>47</v>
       </c>
@@ -3104,7 +3121,7 @@
       <c r="R19" t="s">
         <v>45</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>45323</v>
       </c>
       <c r="T19" t="s">
@@ -3181,6 +3198,7 @@
       <c r="Q20" t="s">
         <v>264</v>
       </c>
+      <c r="S20" s="1"/>
       <c r="Y20" t="s">
         <v>50</v>
       </c>
@@ -3246,6 +3264,7 @@
       <c r="Q21" t="s">
         <v>277</v>
       </c>
+      <c r="S21" s="1"/>
       <c r="U21" t="s">
         <v>47</v>
       </c>
@@ -3317,7 +3336,7 @@
       <c r="R22" t="s">
         <v>45</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>45309</v>
       </c>
       <c r="V22" t="s">
@@ -3385,6 +3404,7 @@
       <c r="Q23" t="s">
         <v>167</v>
       </c>
+      <c r="S23" s="1"/>
       <c r="Y23" t="s">
         <v>136</v>
       </c>
@@ -3447,6 +3467,7 @@
       <c r="Q24" t="s">
         <v>167</v>
       </c>
+      <c r="S24" s="1"/>
       <c r="U24" t="s">
         <v>47</v>
       </c>
@@ -3509,6 +3530,7 @@
       <c r="Q25" t="s">
         <v>154</v>
       </c>
+      <c r="S25" s="1"/>
       <c r="Y25" t="s">
         <v>65</v>
       </c>
@@ -3568,7 +3590,7 @@
       <c r="R26" t="s">
         <v>45</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>45301</v>
       </c>
       <c r="Y26" t="s">
@@ -3627,6 +3649,7 @@
       <c r="Q27" t="s">
         <v>329</v>
       </c>
+      <c r="S27" s="1"/>
       <c r="V27" t="s">
         <v>49</v>
       </c>
@@ -3695,6 +3718,7 @@
       <c r="Q28" t="s">
         <v>224</v>
       </c>
+      <c r="S28" s="1"/>
       <c r="Y28" t="s">
         <v>110</v>
       </c>
@@ -3760,6 +3784,7 @@
       <c r="Q29" t="s">
         <v>348</v>
       </c>
+      <c r="S29" s="1"/>
       <c r="V29" t="s">
         <v>49</v>
       </c>
@@ -3822,6 +3847,7 @@
       <c r="Q30" t="s">
         <v>348</v>
       </c>
+      <c r="S30" s="1"/>
       <c r="V30" t="s">
         <v>49</v>
       </c>
@@ -3884,6 +3910,7 @@
       <c r="Q31" t="s">
         <v>348</v>
       </c>
+      <c r="S31" s="1"/>
       <c r="U31" t="s">
         <v>47</v>
       </c>
@@ -3940,6 +3967,7 @@
       <c r="Q32" t="s">
         <v>348</v>
       </c>
+      <c r="S32" s="1"/>
       <c r="Y32" t="s">
         <v>96</v>
       </c>
@@ -3999,6 +4027,7 @@
       <c r="Q33" t="s">
         <v>167</v>
       </c>
+      <c r="S33" s="1"/>
       <c r="U33" t="s">
         <v>47</v>
       </c>
@@ -4067,7 +4096,7 @@
       <c r="R34" t="s">
         <v>45</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="1">
         <v>45300</v>
       </c>
       <c r="U34" t="s">
@@ -4126,6 +4155,7 @@
       <c r="Q35" t="s">
         <v>392</v>
       </c>
+      <c r="S35" s="1"/>
       <c r="V35" t="s">
         <v>48</v>
       </c>
@@ -4191,7 +4221,7 @@
       <c r="R36" t="s">
         <v>45</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="1">
         <v>45322</v>
       </c>
       <c r="T36" t="s">
@@ -4247,6 +4277,7 @@
       <c r="Q37" t="s">
         <v>317</v>
       </c>
+      <c r="S37" s="1"/>
       <c r="V37" t="s">
         <v>49</v>
       </c>
@@ -4306,7 +4337,7 @@
       <c r="R38" t="s">
         <v>45</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S38" s="1" t="s">
         <v>421</v>
       </c>
       <c r="T38" t="s">
